--- a/publication/web-root/exampleig/0.1.0/CodeSystem-glstring-cs.xlsx
+++ b/publication/web-root/exampleig/0.1.0/CodeSystem-glstring-cs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-27T15:51:23-05:00</t>
+    <t>2023-05-02T10:46:10-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/publication/web-root/exampleig/0.1.0/CodeSystem-glstring-cs.xlsx
+++ b/publication/web-root/exampleig/0.1.0/CodeSystem-glstring-cs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-02T10:46:10-05:00</t>
+    <t>2023-05-02T11:07:11-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/publication/web-root/exampleig/0.1.0/CodeSystem-glstring-cs.xlsx
+++ b/publication/web-root/exampleig/0.1.0/CodeSystem-glstring-cs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-02T11:07:11-05:00</t>
+    <t>2023-05-02T14:37:40-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
